--- a/PCB Design/.PCBsV3/IR FANS LED board.xlsx
+++ b/PCB Design/.PCBsV3/IR FANS LED board.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\obradley\OneDrive - Olin College of Engineering\Documents\GitHub\FlyBox\PCB Design\.PCBsV2\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\obradley\OneDrive - Olin College of Engineering\Documents\GitHub\FlyBox\PCB Design\.PCBsV3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D466456F-4A87-443D-BFE5-E86A3EB1FE2C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{27F1235E-762C-4EB3-87CD-113B47624BEF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -121,9 +121,6 @@
     <t>Your Instructions / Notes</t>
   </si>
   <si>
-    <t>T-1V12W547848A BOM</t>
-  </si>
-  <si>
     <t>2 Pin 5.08 screw terminal</t>
   </si>
   <si>
@@ -153,6 +150,9 @@
   </si>
   <si>
     <t>Arrange the longer ends of the pins up on the board</t>
+  </si>
+  <si>
+    <t>T-1D18W547848A BOM</t>
   </si>
 </sst>
 </file>
@@ -1093,7 +1093,7 @@
   <dimension ref="A1:I7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+      <selection activeCell="D1" sqref="D1:F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1110,7 +1110,7 @@
       <c r="B1" s="8"/>
       <c r="C1" s="1"/>
       <c r="D1" s="9" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="E1" s="9"/>
       <c r="F1" s="9"/>
@@ -1174,25 +1174,25 @@
         <v>1</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C6">
         <v>4</v>
       </c>
       <c r="D6" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E6" s="6">
         <v>691213510002</v>
       </c>
       <c r="F6" t="s">
+        <v>9</v>
+      </c>
+      <c r="H6" t="s">
         <v>10</v>
       </c>
-      <c r="H6" t="s">
+      <c r="I6" t="s">
         <v>11</v>
-      </c>
-      <c r="I6" t="s">
-        <v>12</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="75" x14ac:dyDescent="0.25">
@@ -1200,25 +1200,25 @@
         <v>2</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C7">
         <v>5</v>
       </c>
       <c r="D7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E7" s="7">
         <v>61300411121</v>
       </c>
       <c r="F7" t="s">
+        <v>15</v>
+      </c>
+      <c r="H7" t="s">
+        <v>10</v>
+      </c>
+      <c r="I7" t="s">
         <v>16</v>
-      </c>
-      <c r="H7" t="s">
-        <v>11</v>
-      </c>
-      <c r="I7" t="s">
-        <v>17</v>
       </c>
     </row>
   </sheetData>
